--- a/计科1703面向对象分组统计表.xlsx
+++ b/计科1703面向对象分组统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Codes\cpp-Object-oriented-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4427BB1-8FA8-4E01-BE12-85E2422A65B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC72DFBB-0760-4601-A6AF-6DB296C1A62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>面向对象程序分组情况统计（ 计科1703 ）</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>负责内容</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>黄帅旺</t>
@@ -65,15 +62,124 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 所有内容</t>
+    <t>孟铃翔</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田泽鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>史新玮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器类模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱京州</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数模板 应用实例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙俊至</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王沛智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张正发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车子杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张俊峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周强柱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王棨玢</t>
+  </si>
+  <si>
+    <t>Stack,Queue,QuickSort,HeapSort,BinaraySearch,四则运算,图的DFS,堆排</t>
+  </si>
+  <si>
+    <t>谢奇</t>
+  </si>
+  <si>
+    <t>Vector,List,Map,BubbleSort,SeqSearch,快排，报告撰写</t>
+  </si>
+  <si>
+    <t>闫鹏博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器类模板5及函数模板</t>
+  </si>
+  <si>
+    <t>容器类模板1～4</t>
+  </si>
+  <si>
+    <t>应用实例</t>
+  </si>
+  <si>
+    <t>夏志博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王思远</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宇洋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王燎炳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万军霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王琦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +206,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Liberation Serif"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,6 +254,12 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,13 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
@@ -428,16 +554,16 @@
     <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -451,78 +577,353 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>2017040246</v>
+      </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2017040274</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>2017040318</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>2017040338</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>2017040341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2017040320</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
+        <v>2017040323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2017040323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2017040337</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2017040337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2017040340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>4</v>
+      </c>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2017040338</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42.75">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2017040320</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>2017040313</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>2017040314</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>2017040315</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>2017040316</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>2017040317</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>2017040319</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>2017040321</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>2017040340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>2017040322</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>2017040324</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>2017040327</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>2017040328</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>2017040329</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>2017040330</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>2017040333</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>2017040334</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
         <v>2017040335</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>2017040336</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -531,6 +932,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/计科1703面向对象分组统计表.xlsx
+++ b/计科1703面向对象分组统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Codes\cpp-Object-oriented-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC72DFBB-0760-4601-A6AF-6DB296C1A62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AFAF53-848C-43A5-B438-98F9FB4C4D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -579,7 +579,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>170301</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5">
-        <v>2</v>
+        <v>170302</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>170303</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>4</v>
+        <v>170304</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5</v>
+        <v>170305</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>40</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>6</v>
+        <v>170306</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>25</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>7</v>
+        <v>170307</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>41</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>8</v>
+        <v>170308</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>9</v>
+        <v>170309</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>10</v>
+        <v>170310</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>39</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>11</v>
+        <v>170311</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>22</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>12</v>
+        <v>170312</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>13</v>
+        <v>170313</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>14</v>
+        <v>170314</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>32</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>15</v>
+        <v>170315</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>24</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>16</v>
+        <v>170316</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>38</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>17</v>
+        <v>170317</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>26</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>18</v>
+        <v>170318</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>27</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>19</v>
+        <v>170319</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>20</v>
+        <v>170320</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>21</v>
+        <v>170321</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>36</v>

--- a/计科1703面向对象分组统计表.xlsx
+++ b/计科1703面向对象分组统计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Codes\cpp-Object-oriented-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AFAF53-848C-43A5-B438-98F9FB4C4D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EC18FA-57A5-49D3-AA6A-BFF98030B70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>面向对象程序分组情况统计（ 计科1703 ）</t>
   </si>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>所有内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗威</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -585,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>2017040246</v>
+        <v>2017060246</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -596,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2017040274</v>
+        <v>2017060274</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -923,6 +927,20 @@
         <v>2017040336</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>170322</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>2017040332</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
